--- a/xlsx_files/Race50.xlsx
+++ b/xlsx_files/Race50.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_project\xlsx_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_new\xlsx_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D722954-135E-4E2F-9507-9CC8F23CBA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4A759B-ED43-408A-B73E-BE8AAA8EB222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7344" yWindow="4392" windowWidth="18516" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Track Name</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>Circuit of the Americas - COTA</t>
+  </si>
+  <si>
+    <t>0.75</t>
   </si>
 </sst>
 </file>
@@ -649,7 +652,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -660,7 +663,7 @@
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
     <col min="8" max="8" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
@@ -721,8 +724,8 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2">
-        <v>2</v>
+      <c r="G2" t="s">
+        <v>38</v>
       </c>
       <c r="J2" t="s">
         <v>36</v>

--- a/xlsx_files/Race50.xlsx
+++ b/xlsx_files/Race50.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_new\xlsx_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4A759B-ED43-408A-B73E-BE8AAA8EB222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC07EBC9-F87B-4451-B8E8-A08456361F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Track Name</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>0.75</t>
+  </si>
+  <si>
+    <t>02:06.9250</t>
   </si>
 </sst>
 </file>
@@ -651,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -719,13 +722,19 @@
         <v>37</v>
       </c>
       <c r="E2" s="1">
-        <v>45498</v>
+        <v>45475</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="s">
         <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="J2" t="s">
         <v>36</v>
